--- a/public/template_barang.xlsx
+++ b/public/template_barang.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\laragon\www\PWL_POS\public\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\PWL_POS\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A5A0E3E0-6F13-43FD-84E6-FC23E4311E8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{884F3C6A-DA21-4C7A-92BE-6DE5B3B81E9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10718" yWindow="0" windowWidth="10965" windowHeight="12863" xr2:uid="{EFBF71C8-0B09-4A6E-8426-27BBAEFA66DC}"/>
+    <workbookView xWindow="9600" yWindow="0" windowWidth="9600" windowHeight="10200" xr2:uid="{5B1EF83F-AF31-4121-A716-6E46390A032A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,6 +27,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -72,32 +74,24 @@
     <t>Sari Roti</t>
   </si>
   <si>
-    <t>Shampoo Pantene</t>
+    <t>Shampo Pantene</t>
   </si>
   <si>
     <t>Baju Bayi 2th</t>
   </si>
   <si>
-    <t>Cle 600mL</t>
+    <t>Cleo 600ml</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -122,9 +116,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -153,39 +146,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -237,7 +230,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -348,13 +341,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -363,6 +349,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -427,47 +420,71 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45E535F2-E6D8-4B05-AB22-A59595707A54}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C13AC2A-E0D5-4E9B-A335-AF0ABEC47CF2}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.265625" customWidth="1"/>
-    <col min="2" max="2" width="13.86328125" customWidth="1"/>
-    <col min="3" max="3" width="22.86328125" customWidth="1"/>
+    <col min="1" max="1" width="9.81640625" customWidth="1"/>
+    <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="3" max="3" width="23.36328125" customWidth="1"/>
+    <col min="4" max="4" width="11.54296875" customWidth="1"/>
+    <col min="5" max="5" width="10.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -484,7 +501,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -501,7 +518,7 @@
         <v>12500</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -518,7 +535,7 @@
         <v>18500</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -535,7 +552,7 @@
         <v>92500</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
